--- a/output/fit_clients/fit_round_268.xlsx
+++ b/output/fit_clients/fit_round_268.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2392959858.481296</v>
+        <v>1860955420.838849</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09147034686712553</v>
+        <v>0.1057976634975621</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04269706305066998</v>
+        <v>0.04537994613493775</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1196479977.697589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1830600752.377679</v>
+        <v>1902593879.005038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1256045237844773</v>
+        <v>0.1482212299523546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0320861168443784</v>
+        <v>0.05057138470849976</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>915300390.0120203</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4503116949.745402</v>
+        <v>4104034193.77625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1517085033801562</v>
+        <v>0.1204172226177482</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02328832704219446</v>
+        <v>0.03655150819781229</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2251558524.690681</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4119043753.15986</v>
+        <v>3983197472.661016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07043188968397837</v>
+        <v>0.0776445536208583</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03119373370700797</v>
+        <v>0.03588636048259018</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2059521872.399576</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2845152013.404022</v>
+        <v>1737826572.629939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0989742186221024</v>
+        <v>0.1456309733303893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05609839919167608</v>
+        <v>0.05321458570161033</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1422575944.824721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2372952062.511707</v>
+        <v>2772038561.372546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09540185934048888</v>
+        <v>0.09156498615551717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04725259760028568</v>
+        <v>0.0436455548460268</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1186476056.558161</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3789163517.543093</v>
+        <v>3290542111.738143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1986954501941507</v>
+        <v>0.1999881345070851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02351700845948347</v>
+        <v>0.02183495916185798</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>85</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1894581896.957078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2157732753.99331</v>
+        <v>2038614059.924593</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1991653672478534</v>
+        <v>0.1586224968667505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03562086122279893</v>
+        <v>0.02764116226773715</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1078866381.724184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5617391372.982916</v>
+        <v>3963313041.129103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034686993702337</v>
+        <v>0.2138818920105432</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04968052140617026</v>
+        <v>0.04097976126903518</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>113</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2808695833.604712</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3989052377.508959</v>
+        <v>3961301309.130434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1746100578487349</v>
+        <v>0.1208192255922013</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03296402083926251</v>
+        <v>0.03866921593203371</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>111</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1994526200.636153</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2195773752.90955</v>
+        <v>2250389334.940653</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1793912643178407</v>
+        <v>0.1264653287201394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04796373005681446</v>
+        <v>0.03972910804940692</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>91</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1097886820.834418</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4520941283.089925</v>
+        <v>4422188664.752101</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0929194015344323</v>
+        <v>0.07086948482676922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01897016997427784</v>
+        <v>0.0191710895362396</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2260470670.012997</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3229250683.222076</v>
+        <v>2847247176.804693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1686646632911772</v>
+        <v>0.1236362682819814</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04274859004895814</v>
+        <v>0.03437576497673787</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>87</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1614625359.444819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1304886852.630975</v>
+        <v>1730540494.643092</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08788676522948913</v>
+        <v>0.103158542468228</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04513014423939063</v>
+        <v>0.04366104148063381</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>652443467.5743382</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2467659742.359343</v>
+        <v>1933656161.765893</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09835024364404672</v>
+        <v>0.107870503651379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03701914568530672</v>
+        <v>0.04181994036310561</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1233829904.884043</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3969540102.615512</v>
+        <v>3311239085.65837</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1545666991227777</v>
+        <v>0.1710700168038155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05305882559666041</v>
+        <v>0.05071610145824813</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>78</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1984770087.399261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2995122925.984732</v>
+        <v>3214162339.743085</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1789224084612906</v>
+        <v>0.1223560492502763</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02156903331046275</v>
+        <v>0.02664335861022259</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1497561493.602953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>839384529.2323195</v>
+        <v>1153160351.58583</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1883279452003205</v>
+        <v>0.1798671700881373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01750783173737828</v>
+        <v>0.023079109728989</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>419692254.7418889</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2795635573.277281</v>
+        <v>1908564847.625279</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1076734920499005</v>
+        <v>0.1529714557848481</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02615462429038973</v>
+        <v>0.0222421774506838</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>41</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1397817728.245435</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2250049312.290905</v>
+        <v>1945435849.874879</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09083476108863499</v>
+        <v>0.09782937938365607</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03770779687337512</v>
+        <v>0.03230990156453672</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1125024668.175275</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4014802043.545528</v>
+        <v>3108898930.138899</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1074342410849571</v>
+        <v>0.123146856943035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05241985480290873</v>
+        <v>0.0402395652157256</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2007401022.530737</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1052850026.667293</v>
+        <v>1203802677.452914</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1620840352503546</v>
+        <v>0.1184819930393945</v>
       </c>
       <c r="G23" t="n">
-        <v>0.033995756640307</v>
+        <v>0.05373682124796959</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>526425074.5994303</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3273276623.448095</v>
+        <v>3096502211.442866</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1486705992216904</v>
+        <v>0.1216831651404202</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02583078611083243</v>
+        <v>0.02999901157038788</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>78</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1636638328.566248</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1110535529.647237</v>
+        <v>1323502382.44242</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1106606397665072</v>
+        <v>0.1194902950301213</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02354248617744598</v>
+        <v>0.02524277064321155</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>555267803.3648238</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>967335334.8560046</v>
+        <v>1328446885.284584</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08297396042813605</v>
+        <v>0.120155272944325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02774539410647367</v>
+        <v>0.03219429440836884</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>483667631.564454</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4324640865.503558</v>
+        <v>3281360685.470548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1137226252520649</v>
+        <v>0.1197377462508295</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02020881005851773</v>
+        <v>0.02618287415264983</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2162320426.760579</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3285668652.215889</v>
+        <v>3190681481.878651</v>
       </c>
       <c r="F28" t="n">
-        <v>0.109506371128925</v>
+        <v>0.1461909565176837</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03904513230740798</v>
+        <v>0.04282173888445741</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1642834362.127897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4833000662.344458</v>
+        <v>5623424852.342379</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1104871182507684</v>
+        <v>0.09570927739007026</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02968800453494976</v>
+        <v>0.04180072659177158</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>119</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2416500290.270216</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1972407685.979326</v>
+        <v>2063805434.32847</v>
       </c>
       <c r="F30" t="n">
-        <v>0.119981229465621</v>
+        <v>0.1022393533959285</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02974637944050735</v>
+        <v>0.03400915851433359</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>986203877.2865126</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1217658419.235501</v>
+        <v>1326223513.229993</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09628031882268143</v>
+        <v>0.1081168149596153</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04046167317527597</v>
+        <v>0.04751893835584167</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>608829156.9253066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1157764666.999059</v>
+        <v>1776426389.337976</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07995751671031126</v>
+        <v>0.1112778901019334</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02720449670164659</v>
+        <v>0.02681939980396382</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>578882330.9774098</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3106981315.848902</v>
+        <v>3073823693.516513</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2030918814358647</v>
+        <v>0.1950506400463655</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04913908743737726</v>
+        <v>0.04510436812334451</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>82</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1553490644.461733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562471550.998776</v>
+        <v>1318096721.354765</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09336538230100093</v>
+        <v>0.101103889688461</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02019597272070005</v>
+        <v>0.02371699117387363</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>781235721.0758425</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1221378900.428588</v>
+        <v>993291052.37995</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09599248583223739</v>
+        <v>0.07769228131109428</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0410819995500503</v>
+        <v>0.03767119294112351</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>610689420.237835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2273913525.804444</v>
+        <v>3233157937.46937</v>
       </c>
       <c r="F36" t="n">
-        <v>0.147637353798093</v>
+        <v>0.1176242086371546</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02771093332527068</v>
+        <v>0.02139782762091922</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1136956803.005967</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2057299403.391255</v>
+        <v>2522390971.180667</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07844343206601374</v>
+        <v>0.1000327859489031</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04035656911039133</v>
+        <v>0.0318205070155206</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>71</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1028649736.861497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1604423879.157211</v>
+        <v>1511147171.920114</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1176182327587656</v>
+        <v>0.121176214617566</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0369540370369588</v>
+        <v>0.03291827952493403</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>802211974.0788687</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989285490.428885</v>
+        <v>1793746026.602345</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1208277550817915</v>
+        <v>0.1550404028635547</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02142245793302178</v>
+        <v>0.02429020878673618</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>994642741.3775872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573365970.797506</v>
+        <v>1243050742.234562</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1166473298584884</v>
+        <v>0.1273193385173603</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04955875967966498</v>
+        <v>0.04891262112669574</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>786682933.2382678</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2928741796.543528</v>
+        <v>1814390779.271235</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1033590455954676</v>
+        <v>0.1349575409024913</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03683598961768356</v>
+        <v>0.04614438268205644</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>64</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1464370881.620049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2940086832.058846</v>
+        <v>3718478212.619969</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1011986265146004</v>
+        <v>0.1026364082976914</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03724972396660295</v>
+        <v>0.03553868960498069</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1470043372.36184</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3055421117.14015</v>
+        <v>2233282576.777306</v>
       </c>
       <c r="F43" t="n">
-        <v>0.168789223521422</v>
+        <v>0.1594963481387339</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02224384355094766</v>
+        <v>0.02441402818453973</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>95</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1527710551.376432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1428356718.200257</v>
+        <v>1804788873.53239</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06194902019976037</v>
+        <v>0.08532118290212443</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02347490244122857</v>
+        <v>0.02678037716543406</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>714178351.3804806</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2283482914.805804</v>
+        <v>2228493316.4177</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1900455534322134</v>
+        <v>0.1829967431506116</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05341712069615649</v>
+        <v>0.04298637569991888</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1141741476.811039</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5325567946.544017</v>
+        <v>5220784830.505967</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1162106084044307</v>
+        <v>0.1387236820195022</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04726830892988397</v>
+        <v>0.05099206858815682</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>95</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2662784018.685366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4478722571.581265</v>
+        <v>4186373871.294219</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1574653684514151</v>
+        <v>0.1667785521854355</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0574214792604931</v>
+        <v>0.04632680694174122</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>72</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2239361312.081722</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2955071755.628726</v>
+        <v>3375260010.97784</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09097015459695752</v>
+        <v>0.0951328736209693</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03452795621433595</v>
+        <v>0.02485558375467287</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1477535972.915413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1708871620.632598</v>
+        <v>1434205572.691533</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1395874165844552</v>
+        <v>0.1479136236634328</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03324899563643693</v>
+        <v>0.03152001091797695</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>854435809.8628169</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2852572901.22561</v>
+        <v>3481233793.155568</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1344553664073229</v>
+        <v>0.1203573858432138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05253051979699349</v>
+        <v>0.03324821703919837</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>91</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1426286520.945406</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1545026469.347548</v>
+        <v>1446408705.086985</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1507878497491882</v>
+        <v>0.1231118649840402</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05062696510745469</v>
+        <v>0.03452461007410444</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>772513230.293974</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4436996221.901348</v>
+        <v>4461268949.173335</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09381884803126561</v>
+        <v>0.1176591663136095</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0408634199690097</v>
+        <v>0.04714753476766073</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>110</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2218498141.707039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2421511789.416275</v>
+        <v>2492208389.026562</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1462930359523231</v>
+        <v>0.1847339860172043</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03225699313950657</v>
+        <v>0.03365996040118856</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>77</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1210755967.098034</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3909692096.102137</v>
+        <v>4596527458.942985</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1584946265766571</v>
+        <v>0.1032223787691741</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03344555869981518</v>
+        <v>0.04911651905756715</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>87</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1954846105.008275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4923830666.177788</v>
+        <v>3494849450.500959</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1837116683100545</v>
+        <v>0.2006474109592205</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02951831909548084</v>
+        <v>0.0202196663151165</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2461915348.765119</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1787909952.969486</v>
+        <v>1392421223.464768</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1366178001503106</v>
+        <v>0.1291695413025818</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04747418697803368</v>
+        <v>0.03800386831842302</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>893954976.0742875</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3654960308.465488</v>
+        <v>3213956425.558746</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1571887742036852</v>
+        <v>0.1842469702685706</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01987038004011904</v>
+        <v>0.02505964483954495</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>85</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1827480213.625713</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1699505979.531332</v>
+        <v>1713869213.662765</v>
       </c>
       <c r="F58" t="n">
-        <v>0.169898943139314</v>
+        <v>0.1900845816848183</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03308099475567753</v>
+        <v>0.03384825298244565</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>849753002.6917151</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4915892846.341421</v>
+        <v>4004742636.151556</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1236867069781178</v>
+        <v>0.09977202069995751</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03326772342409337</v>
+        <v>0.04451973800644331</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>73</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2457946354.940249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2682404321.125076</v>
+        <v>3441528548.08133</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1860765878773697</v>
+        <v>0.130710916360657</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02945403416117798</v>
+        <v>0.02450105883660004</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>84</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1341202197.594538</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2242790729.504393</v>
+        <v>3012936040.92273</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1179991636243605</v>
+        <v>0.1382269736247525</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02051676910689477</v>
+        <v>0.02177624398981113</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>92</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1121395416.622823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2118098598.055698</v>
+        <v>1661147775.429705</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1371768837786057</v>
+        <v>0.1770097535785945</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04238038881136091</v>
+        <v>0.04928976550079903</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1059049374.783307</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4682388903.801722</v>
+        <v>3562761924.075963</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08814561825335566</v>
+        <v>0.08045889598139742</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04056646577722955</v>
+        <v>0.03385628975637991</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2341194483.818007</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5425888167.111841</v>
+        <v>3853118768.136569</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1229557894514102</v>
+        <v>0.1648598637962603</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02294211111316115</v>
+        <v>0.03339838298070014</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>83</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2712944219.707587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4326442457.213349</v>
+        <v>3968682760.53764</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1156924425818765</v>
+        <v>0.1344601226837915</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03001844987540247</v>
+        <v>0.02288681465306064</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2163221227.713442</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3500784465.10596</v>
+        <v>5027732760.432844</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1433044744648621</v>
+        <v>0.1401807898522712</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03582166122431821</v>
+        <v>0.0348995034831255</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>78</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1750392179.417643</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2115469256.754472</v>
+        <v>2989388553.770045</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0787704895921834</v>
+        <v>0.1015963462870093</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05159506474944873</v>
+        <v>0.0357546970741586</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1057734721.555202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4375853742.355186</v>
+        <v>4180183892.354094</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1575005847123688</v>
+        <v>0.1456730522056809</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04582810522815495</v>
+        <v>0.0396002905308507</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2187926889.734261</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2491177989.592791</v>
+        <v>2149846361.877142</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1136819288433678</v>
+        <v>0.1826752041050271</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05256340453766321</v>
+        <v>0.04893670854084751</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1245589063.234939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2819072044.361259</v>
+        <v>3273025907.050065</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07053740154463714</v>
+        <v>0.07745648127449999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04685193919827672</v>
+        <v>0.03392098799877376</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>77</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1409535987.3516</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4881541115.823885</v>
+        <v>3626109967.090764</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510309457272008</v>
+        <v>0.1496660078210777</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03356352623825061</v>
+        <v>0.02375152150563411</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>98</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2440770654.755073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1629461888.863936</v>
+        <v>1910472318.802361</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08591547861361326</v>
+        <v>0.06785190792487157</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03917401843159551</v>
+        <v>0.05196039252812747</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>814730950.5513966</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2862566532.953823</v>
+        <v>2322819538.906904</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0956418457049478</v>
+        <v>0.08396518950348764</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0517418086702059</v>
+        <v>0.03533254129168298</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>102</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1431283275.044284</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3685341371.76935</v>
+        <v>3918843583.357152</v>
       </c>
       <c r="F74" t="n">
-        <v>0.180584924735328</v>
+        <v>0.1365497775777569</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02918426200702488</v>
+        <v>0.03264030785305674</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>91</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1842670692.028172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1862445989.23473</v>
+        <v>2338557904.280595</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1072253802936011</v>
+        <v>0.1339548991769754</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02321521162491679</v>
+        <v>0.0278166163338369</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>931222971.7535233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5238843483.739759</v>
+        <v>3372035876.361338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.123784829750457</v>
+        <v>0.08429270877817278</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02674403079278816</v>
+        <v>0.02200788255591999</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2619421778.553795</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753273521.670853</v>
+        <v>1595705729.043643</v>
       </c>
       <c r="F77" t="n">
-        <v>0.147056216941386</v>
+        <v>0.1677905364854502</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03114292434170758</v>
+        <v>0.03126176515435935</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>876636785.8955485</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4428190429.769789</v>
+        <v>2906885217.430224</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1090042177207146</v>
+        <v>0.08528504369835675</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04591298423012719</v>
+        <v>0.0390468427382001</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>93</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2214095149.976316</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1780563491.518342</v>
+        <v>1901590015.948341</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1240925757394735</v>
+        <v>0.1417635389941402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02479585598954236</v>
+        <v>0.03954468032079422</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>890281829.0522609</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4854315830.542584</v>
+        <v>4099041733.16524</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09089377753743974</v>
+        <v>0.09551842379938326</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03051960584241566</v>
+        <v>0.03238580603823576</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>56</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2427157957.238415</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3761535657.447387</v>
+        <v>5118512431.879123</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1240692813575751</v>
+        <v>0.1067652306252401</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02830192234548207</v>
+        <v>0.02394290181997938</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>61</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1880767783.090254</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4196942882.141533</v>
+        <v>4589736871.763695</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1391633194101365</v>
+        <v>0.1766266235352929</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02948271612344702</v>
+        <v>0.02498683225598036</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2098471469.807679</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2208354995.46675</v>
+        <v>1823413331.161267</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1222373548467165</v>
+        <v>0.1199241744705364</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04331788594996418</v>
+        <v>0.02959060672766226</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1104177508.99312</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1721928231.360257</v>
+        <v>1969491332.398262</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09772632907671765</v>
+        <v>0.1087014446277924</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04027223433247542</v>
+        <v>0.03228297223790842</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>860964161.3808141</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3686058810.647033</v>
+        <v>2538022664.764538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1795937774053385</v>
+        <v>0.1451456104758591</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05215884030810146</v>
+        <v>0.04810699167424099</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>101</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1843029541.195213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2688082289.305491</v>
+        <v>2281221356.85351</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166005435670063</v>
+        <v>0.1681574719707051</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0202401261704251</v>
+        <v>0.01924164799022443</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1344041267.96909</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1047254854.553088</v>
+        <v>911494401.0449572</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1559289702262366</v>
+        <v>0.1591033033837583</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02958724287518812</v>
+        <v>0.03191595401539915</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>523627443.7037357</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3147898948.049083</v>
+        <v>3126677925.834873</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1345648616143487</v>
+        <v>0.1700213480488353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03974767338233764</v>
+        <v>0.0395061702535625</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>106</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1573949519.07804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3304190070.369095</v>
+        <v>2356744315.031674</v>
       </c>
       <c r="F89" t="n">
-        <v>0.109029196510527</v>
+        <v>0.147999284693543</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03087026006309991</v>
+        <v>0.03596245758630645</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>91</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1652095051.004012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1914433298.908568</v>
+        <v>1756960691.332084</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1190137173692125</v>
+        <v>0.1080343176375815</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05004439653278241</v>
+        <v>0.0511447322141164</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>957216704.0091739</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2100409401.494281</v>
+        <v>1919040595.031987</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1539293164166095</v>
+        <v>0.1660656590761928</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04587489408646722</v>
+        <v>0.05570389392370792</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1050204659.621431</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3000451804.243184</v>
+        <v>2614158821.164669</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0724247196931197</v>
+        <v>0.09500731729751113</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03962313122188198</v>
+        <v>0.04316350728132017</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1500225923.85532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4364609997.186221</v>
+        <v>3547095064.684122</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09827654229632496</v>
+        <v>0.08588052717041177</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03613436853690487</v>
+        <v>0.03380642577580963</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2182304975.639345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2031940654.833346</v>
+        <v>1917953963.98992</v>
       </c>
       <c r="F94" t="n">
-        <v>0.113685611035159</v>
+        <v>0.1356637576433172</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02734983593335241</v>
+        <v>0.02869840157400007</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1015970329.907343</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2834064662.671053</v>
+        <v>2314473137.201163</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1384058751503693</v>
+        <v>0.1088284005890083</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05183342184927781</v>
+        <v>0.03325846741878348</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1417032343.132212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1854595333.008916</v>
+        <v>1704096528.124623</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1182005361436469</v>
+        <v>0.08727090550086324</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03064142261032849</v>
+        <v>0.03462261506068084</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>927297669.0092385</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3501202228.621133</v>
+        <v>3485857566.617868</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1514863538957836</v>
+        <v>0.1399089614457611</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02410477372447097</v>
+        <v>0.02020987089106601</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>86</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1750601130.572036</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3033298488.889336</v>
+        <v>2668250062.328682</v>
       </c>
       <c r="F98" t="n">
-        <v>0.112993915925941</v>
+        <v>0.1080894219128196</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03233278028557306</v>
+        <v>0.02757572595762469</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>72</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1516649231.383871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3297388089.136756</v>
+        <v>2239264155.009533</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1279912718717821</v>
+        <v>0.1047904518475838</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02882377310236967</v>
+        <v>0.02405957495058266</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>85</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1648694052.048145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4332291202.820875</v>
+        <v>3255936841.811065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1201085450711392</v>
+        <v>0.1358999205517454</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02206699314642523</v>
+        <v>0.02264492705940947</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2166145698.608575</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2514779574.527312</v>
+        <v>2659932519.761425</v>
       </c>
       <c r="F101" t="n">
-        <v>0.187765895787145</v>
+        <v>0.1387628517432031</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05210262330503897</v>
+        <v>0.04941468723657901</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>107</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1257389812.198293</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_268.xlsx
+++ b/output/fit_clients/fit_round_268.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1860955420.838849</v>
+        <v>2199236053.051715</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1057976634975621</v>
+        <v>0.07320710172539421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04537994613493775</v>
+        <v>0.03072766624114941</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1902593879.005038</v>
+        <v>2117567515.697265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1482212299523546</v>
+        <v>0.1221700057191788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05057138470849976</v>
+        <v>0.0406115160431802</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4104034193.77625</v>
+        <v>4823407502.896711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1204172226177482</v>
+        <v>0.1086228456511172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03655150819781229</v>
+        <v>0.03325238586353899</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3983197472.661016</v>
+        <v>4143567289.103892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0776445536208583</v>
+        <v>0.0674328329872742</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03588636048259018</v>
+        <v>0.04570223070786349</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1737826572.629939</v>
+        <v>2792197101.59813</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1456309733303893</v>
+        <v>0.1414789603232677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05321458570161033</v>
+        <v>0.04754381540953284</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2772038561.372546</v>
+        <v>2382357668.077515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09156498615551717</v>
+        <v>0.09827032515652245</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0436455548460268</v>
+        <v>0.04250880912739488</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3290542111.738143</v>
+        <v>2595609035.52799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1999881345070851</v>
+        <v>0.1995182047277392</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02183495916185798</v>
+        <v>0.02930596445900528</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2038614059.924593</v>
+        <v>1504498200.690631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1586224968667505</v>
+        <v>0.1863004266544299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02764116226773715</v>
+        <v>0.02330801141815509</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3963313041.129103</v>
+        <v>3734874482.755646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2138818920105432</v>
+        <v>0.1305321079256888</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04097976126903518</v>
+        <v>0.03586087670794284</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3961301309.130434</v>
+        <v>2729950281.291165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1208192255922013</v>
+        <v>0.1164152369609313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03866921593203371</v>
+        <v>0.04115515520707796</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2250389334.940653</v>
+        <v>2269381861.250054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1264653287201394</v>
+        <v>0.1769386473246093</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03972910804940692</v>
+        <v>0.04429681673748455</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4422188664.752101</v>
+        <v>4279569445.871023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07086948482676922</v>
+        <v>0.0681562242146586</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0191710895362396</v>
+        <v>0.02883498942678269</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2847247176.804693</v>
+        <v>3841288339.142138</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1236362682819814</v>
+        <v>0.1564818466785189</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03437576497673787</v>
+        <v>0.03761283584997734</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1730540494.643092</v>
+        <v>1540648787.004284</v>
       </c>
       <c r="F15" t="n">
-        <v>0.103158542468228</v>
+        <v>0.07080060254867944</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04366104148063381</v>
+        <v>0.03721253984202012</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1933656161.765893</v>
+        <v>2488340299.842297</v>
       </c>
       <c r="F16" t="n">
-        <v>0.107870503651379</v>
+        <v>0.07367631162734446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04181994036310561</v>
+        <v>0.04760550378742092</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3311239085.65837</v>
+        <v>3521000596.013872</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1710700168038155</v>
+        <v>0.1564866019784516</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05071610145824813</v>
+        <v>0.04704023577968031</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3214162339.743085</v>
+        <v>2516134407.55697</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1223560492502763</v>
+        <v>0.1325535652464713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02664335861022259</v>
+        <v>0.02877604583324661</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1153160351.58583</v>
+        <v>1137809804.545388</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1798671700881373</v>
+        <v>0.1379285671821059</v>
       </c>
       <c r="G19" t="n">
-        <v>0.023079109728989</v>
+        <v>0.02345941181218044</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1908564847.625279</v>
+        <v>2200203926.753081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1529714557848481</v>
+        <v>0.1555791921900995</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0222421774506838</v>
+        <v>0.03107588395586849</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1945435849.874879</v>
+        <v>1820358188.656653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09782937938365607</v>
+        <v>0.0682607571254383</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03230990156453672</v>
+        <v>0.03085895589050509</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3108898930.138899</v>
+        <v>3136322966.650064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.123146856943035</v>
+        <v>0.1412845048475751</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0402395652157256</v>
+        <v>0.05670369223685446</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1203802677.452914</v>
+        <v>1367784872.189739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1184819930393945</v>
+        <v>0.1365960839003223</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05373682124796959</v>
+        <v>0.04863565244311208</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3096502211.442866</v>
+        <v>2867294416.060503</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1216831651404202</v>
+        <v>0.1488830859225621</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02999901157038788</v>
+        <v>0.03110132978403118</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1323502382.44242</v>
+        <v>1145595403.056075</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1194902950301213</v>
+        <v>0.09103868284266356</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02524277064321155</v>
+        <v>0.0186273619528983</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1328446885.284584</v>
+        <v>1337701154.022541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120155272944325</v>
+        <v>0.1113569471057797</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03219429440836884</v>
+        <v>0.0360261533892129</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3281360685.470548</v>
+        <v>4336752590.853495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1197377462508295</v>
+        <v>0.1453204675201707</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02618287415264983</v>
+        <v>0.02424431512553122</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3190681481.878651</v>
+        <v>3510212744.561831</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1461909565176837</v>
+        <v>0.1200984800166636</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04282173888445741</v>
+        <v>0.04715936577017273</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5623424852.342379</v>
+        <v>4153482161.224035</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09570927739007026</v>
+        <v>0.1299509428938932</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04180072659177158</v>
+        <v>0.04146274350777959</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2063805434.32847</v>
+        <v>1767740652.022927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1022393533959285</v>
+        <v>0.1255666775624678</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03400915851433359</v>
+        <v>0.02778062320323085</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1326223513.229993</v>
+        <v>1092410038.78321</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1081168149596153</v>
+        <v>0.08091222883877855</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04751893835584167</v>
+        <v>0.03609020757110094</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1776426389.337976</v>
+        <v>1221000495.557734</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1112778901019334</v>
+        <v>0.1200402050180178</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02681939980396382</v>
+        <v>0.02824079298513143</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3073823693.516513</v>
+        <v>1894000634.216869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1950506400463655</v>
+        <v>0.1748280644416945</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04510436812334451</v>
+        <v>0.05341413967680995</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1318096721.354765</v>
+        <v>1317153770.263275</v>
       </c>
       <c r="F34" t="n">
-        <v>0.101103889688461</v>
+        <v>0.1218159879441071</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02371699117387363</v>
+        <v>0.02060141143908273</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>993291052.37995</v>
+        <v>903015763.9267839</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07769228131109428</v>
+        <v>0.07537474937481248</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03767119294112351</v>
+        <v>0.03722066793888401</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3233157937.46937</v>
+        <v>3153401725.578619</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1176242086371546</v>
+        <v>0.1596732144308439</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02139782762091922</v>
+        <v>0.02186007178326004</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2522390971.180667</v>
+        <v>2496044611.466342</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1000327859489031</v>
+        <v>0.1062239037579868</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0318205070155206</v>
+        <v>0.03066358110951442</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1511147171.920114</v>
+        <v>1995033758.134185</v>
       </c>
       <c r="F38" t="n">
-        <v>0.121176214617566</v>
+        <v>0.1184773971168098</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03291827952493403</v>
+        <v>0.03780768768364756</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1793746026.602345</v>
+        <v>2026404881.033863</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1550404028635547</v>
+        <v>0.1592588123754999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02429020878673618</v>
+        <v>0.02493826621976821</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1243050742.234562</v>
+        <v>1098317581.018535</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1273193385173603</v>
+        <v>0.1314323157203976</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04891262112669574</v>
+        <v>0.04929739771478654</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1814390779.271235</v>
+        <v>2368318672.140407</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1349575409024913</v>
+        <v>0.1027238261121008</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04614438268205644</v>
+        <v>0.04121553669993359</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3718478212.619969</v>
+        <v>3319500690.067651</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026364082976914</v>
+        <v>0.1141787953672443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03553868960498069</v>
+        <v>0.03863416416455732</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2233282576.777306</v>
+        <v>1859537121.975029</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1594963481387339</v>
+        <v>0.1971654123312903</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02441402818453973</v>
+        <v>0.01816308726673916</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1804788873.53239</v>
+        <v>2231119959.643707</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08532118290212443</v>
+        <v>0.07831474982095697</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02678037716543406</v>
+        <v>0.02678665439453373</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2228493316.4177</v>
+        <v>2112336639.329782</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1829967431506116</v>
+        <v>0.1292714214462983</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04298637569991888</v>
+        <v>0.03467409782949778</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5220784830.505967</v>
+        <v>3675255984.812106</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1387236820195022</v>
+        <v>0.1239877996010437</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05099206858815682</v>
+        <v>0.05442573270933369</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4186373871.294219</v>
+        <v>3893438206.427266</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1667785521854355</v>
+        <v>0.16938896371402</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04632680694174122</v>
+        <v>0.0517521381311966</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3375260010.97784</v>
+        <v>3776762335.503607</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0951328736209693</v>
+        <v>0.07510524124836264</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02485558375467287</v>
+        <v>0.02555498196191098</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1434205572.691533</v>
+        <v>1630822987.776002</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1479136236634328</v>
+        <v>0.1645563502118813</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03152001091797695</v>
+        <v>0.04447867277639213</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3481233793.155568</v>
+        <v>3907480663.398072</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1203573858432138</v>
+        <v>0.1254887958980029</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03324821703919837</v>
+        <v>0.05137796263687505</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1446408705.086985</v>
+        <v>1252477393.964017</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1231118649840402</v>
+        <v>0.1281271559740949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03452461007410444</v>
+        <v>0.05218726949664988</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4461268949.173335</v>
+        <v>3449345366.316079</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1176591663136095</v>
+        <v>0.1327310504594152</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04714753476766073</v>
+        <v>0.051492213548909</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2492208389.026562</v>
+        <v>3132639737.316287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1847339860172043</v>
+        <v>0.1893853652329781</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03365996040118856</v>
+        <v>0.02413262343565965</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4596527458.942985</v>
+        <v>4789038162.065435</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1032223787691741</v>
+        <v>0.139577439180621</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04911651905756715</v>
+        <v>0.04454413781702461</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3494849450.500959</v>
+        <v>4894952543.103269</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2006474109592205</v>
+        <v>0.2209284629902408</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0202196663151165</v>
+        <v>0.01992619325937059</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1392421223.464768</v>
+        <v>1527542515.181845</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1291695413025818</v>
+        <v>0.1613636125105377</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03800386831842302</v>
+        <v>0.04530462233262335</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3213956425.558746</v>
+        <v>4576510486.04168</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1842469702685706</v>
+        <v>0.1295156563990791</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02505964483954495</v>
+        <v>0.01815380973670945</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1713869213.662765</v>
+        <v>1730944638.29016</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1900845816848183</v>
+        <v>0.1791710634269468</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03384825298244565</v>
+        <v>0.03458347707678593</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4004742636.151556</v>
+        <v>5024283874.47956</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09977202069995751</v>
+        <v>0.08311583524939817</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04451973800644331</v>
+        <v>0.03881531099614262</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3441528548.08133</v>
+        <v>3722774937.433926</v>
       </c>
       <c r="F60" t="n">
-        <v>0.130710916360657</v>
+        <v>0.1613980158181129</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02450105883660004</v>
+        <v>0.03064614877894815</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3012936040.92273</v>
+        <v>3058416983.592125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1382269736247525</v>
+        <v>0.1307851616574402</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02177624398981113</v>
+        <v>0.02946731604808754</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1661147775.429705</v>
+        <v>1671260055.205636</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1770097535785945</v>
+        <v>0.1487155540593537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04928976550079903</v>
+        <v>0.04636844560179598</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3562761924.075963</v>
+        <v>3858986702.017051</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08045889598139742</v>
+        <v>0.06864200274728555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03385628975637991</v>
+        <v>0.04037164747871873</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3853118768.136569</v>
+        <v>4493897337.933197</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1648598637962603</v>
+        <v>0.1680058742362159</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03339838298070014</v>
+        <v>0.02342701399149182</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3968682760.53764</v>
+        <v>4204534720.504903</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1344601226837915</v>
+        <v>0.1374321935481922</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02288681465306064</v>
+        <v>0.03091283503154507</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5027732760.432844</v>
+        <v>4853043354.512989</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1401807898522712</v>
+        <v>0.1460095705315343</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0348995034831255</v>
+        <v>0.04171123832577793</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2989388553.770045</v>
+        <v>3502843680.174311</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1015963462870093</v>
+        <v>0.07841359144404568</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0357546970741586</v>
+        <v>0.04552028333631888</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4180183892.354094</v>
+        <v>4889672759.034486</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1456730522056809</v>
+        <v>0.1597582726960134</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0396002905308507</v>
+        <v>0.03545863810142254</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2149846361.877142</v>
+        <v>2466252952.264831</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1826752041050271</v>
+        <v>0.1369126279517975</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04893670854084751</v>
+        <v>0.05116598134800548</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3273025907.050065</v>
+        <v>2947585709.115956</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07745648127449999</v>
+        <v>0.08020503909579833</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03392098799877376</v>
+        <v>0.03367234680700161</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3626109967.090764</v>
+        <v>3729638493.885473</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1496660078210777</v>
+        <v>0.1457783409128714</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02375152150563411</v>
+        <v>0.02381994949326482</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1910472318.802361</v>
+        <v>1435189910.582478</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06785190792487157</v>
+        <v>0.07415107931377839</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05196039252812747</v>
+        <v>0.03983113166444009</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2322819538.906904</v>
+        <v>2668450196.142019</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08396518950348764</v>
+        <v>0.0916149133121586</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03533254129168298</v>
+        <v>0.03208122581616862</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3918843583.357152</v>
+        <v>3893315682.369537</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1365497775777569</v>
+        <v>0.1317782683077026</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03264030785305674</v>
+        <v>0.03327400913910286</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2338557904.280595</v>
+        <v>2197111781.585377</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339548991769754</v>
+        <v>0.1273547924109416</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0278166163338369</v>
+        <v>0.02505084930072987</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3372035876.361338</v>
+        <v>3368431510.41661</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08429270877817278</v>
+        <v>0.1015581046081399</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02200788255591999</v>
+        <v>0.0321326237145157</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1595705729.043643</v>
+        <v>2052842949.458555</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1677905364854502</v>
+        <v>0.168847117463018</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03126176515435935</v>
+        <v>0.02139724285645318</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2906885217.430224</v>
+        <v>3306748257.477674</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08528504369835675</v>
+        <v>0.1095717463570856</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0390468427382001</v>
+        <v>0.05487710991465436</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1901590015.948341</v>
+        <v>1762438113.698988</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1417635389941402</v>
+        <v>0.1413394971340648</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03954468032079422</v>
+        <v>0.03971700452816796</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4099041733.16524</v>
+        <v>4993469737.597779</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09551842379938326</v>
+        <v>0.07766650192947627</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03238580603823576</v>
+        <v>0.03227180470550182</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5118512431.879123</v>
+        <v>3292896614.038081</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1067652306252401</v>
+        <v>0.08457183863212404</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02394290181997938</v>
+        <v>0.02697106218123031</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4589736871.763695</v>
+        <v>4055428280.26216</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1766266235352929</v>
+        <v>0.1744161275288653</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02498683225598036</v>
+        <v>0.02614898716819924</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1823413331.161267</v>
+        <v>1626629448.286719</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1199241744705364</v>
+        <v>0.1183500154581787</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02959060672766226</v>
+        <v>0.0284376882681813</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1969491332.398262</v>
+        <v>2252561628.324916</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1087014446277924</v>
+        <v>0.1208377467606392</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03228297223790842</v>
+        <v>0.03389422188577965</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2538022664.764538</v>
+        <v>3169228920.169856</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1451456104758591</v>
+        <v>0.1851071498908393</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04810699167424099</v>
+        <v>0.0443946209483346</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2281221356.85351</v>
+        <v>2083503161.812804</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1681574719707051</v>
+        <v>0.1057647828569206</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01924164799022443</v>
+        <v>0.02714843448660198</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>911494401.0449572</v>
+        <v>915372114.8168418</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1591033033837583</v>
+        <v>0.1240530392490921</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03191595401539915</v>
+        <v>0.04168165911902276</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3126677925.834873</v>
+        <v>3312799482.861022</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1700213480488353</v>
+        <v>0.129598140097695</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0395061702535625</v>
+        <v>0.03872773458427469</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2356744315.031674</v>
+        <v>2137133374.810058</v>
       </c>
       <c r="F89" t="n">
-        <v>0.147999284693543</v>
+        <v>0.1007512792660097</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03596245758630645</v>
+        <v>0.03869181485510172</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1756960691.332084</v>
+        <v>1569235329.426594</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1080343176375815</v>
+        <v>0.1168151715796029</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0511447322141164</v>
+        <v>0.04660713150279901</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1919040595.031987</v>
+        <v>1490347289.154019</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1660656590761928</v>
+        <v>0.1438524660158848</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05570389392370792</v>
+        <v>0.03835747700499469</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2614158821.164669</v>
+        <v>2775213675.504607</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09500731729751113</v>
+        <v>0.1013767750473263</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04316350728132017</v>
+        <v>0.03208336763254838</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3547095064.684122</v>
+        <v>4924922266.002545</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08588052717041177</v>
+        <v>0.1013054946428738</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03380642577580963</v>
+        <v>0.05329789726059073</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1917953963.98992</v>
+        <v>2011946372.40998</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1356637576433172</v>
+        <v>0.1423506101085935</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02869840157400007</v>
+        <v>0.03351774989470118</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2314473137.201163</v>
+        <v>2377561291.210359</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1088284005890083</v>
+        <v>0.1327130337155654</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03325846741878348</v>
+        <v>0.03585841014803605</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1704096528.124623</v>
+        <v>2168892479.709667</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08727090550086324</v>
+        <v>0.1305825922623157</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03462261506068084</v>
+        <v>0.04372116546880286</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3485857566.617868</v>
+        <v>4058248787.013638</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1399089614457611</v>
+        <v>0.1378159230884104</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02020987089106601</v>
+        <v>0.02806424870363423</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2668250062.328682</v>
+        <v>3018085856.36568</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1080894219128196</v>
+        <v>0.105464097401574</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757572595762469</v>
+        <v>0.03261893230646454</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2239264155.009533</v>
+        <v>2301378644.019911</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1047904518475838</v>
+        <v>0.1412435864016991</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02405957495058266</v>
+        <v>0.02435828283087782</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3255936841.811065</v>
+        <v>3437944948.336082</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1358999205517454</v>
+        <v>0.1534372533136081</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02264492705940947</v>
+        <v>0.02692179588844755</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2659932519.761425</v>
+        <v>3586720216.598755</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1387628517432031</v>
+        <v>0.1814936795477436</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04941468723657901</v>
+        <v>0.04931478550380606</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_268.xlsx
+++ b/output/fit_clients/fit_round_268.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2199236053.051715</v>
+        <v>2439308787.418955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07320710172539421</v>
+        <v>0.07940971988553405</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03072766624114941</v>
+        <v>0.03337464900315237</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2117567515.697265</v>
+        <v>1635873213.694831</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1221700057191788</v>
+        <v>0.1374180476839602</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0406115160431802</v>
+        <v>0.03790906400877609</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4823407502.896711</v>
+        <v>3650718867.188142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1086228456511172</v>
+        <v>0.1367944380674725</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03325238586353899</v>
+        <v>0.02727263059082342</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>144</v>
+      </c>
+      <c r="J4" t="n">
+        <v>267</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75.45959615806774</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4143567289.103892</v>
+        <v>2660262457.614707</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0674328329872742</v>
+        <v>0.0855519975591045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04570223070786349</v>
+        <v>0.03964289502306701</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2792197101.59813</v>
+        <v>2594643886.007618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1414789603232677</v>
+        <v>0.1297441609574451</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04754381540953284</v>
+        <v>0.05447827667688079</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2382357668.077515</v>
+        <v>2866263654.75659</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09827032515652245</v>
+        <v>0.07277041674124275</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04250880912739488</v>
+        <v>0.03302468570768556</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2595609035.52799</v>
+        <v>2486426073.81591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1995182047277392</v>
+        <v>0.1712197874850071</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02930596445900528</v>
+        <v>0.02361488418406604</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>70</v>
+      </c>
+      <c r="J8" t="n">
+        <v>267</v>
+      </c>
+      <c r="K8" t="n">
+        <v>39.56271466931202</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1504498200.690631</v>
+        <v>2019553369.676713</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1863004266544299</v>
+        <v>0.1647796931788242</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02330801141815509</v>
+        <v>0.02474559013281804</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3734874482.755646</v>
+        <v>3614757169.202083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1305321079256888</v>
+        <v>0.1935533930910263</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03586087670794284</v>
+        <v>0.04274850816335833</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>242</v>
+      </c>
+      <c r="J10" t="n">
+        <v>267</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79.82552310819419</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2729950281.291165</v>
+        <v>3793521774.427564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1164152369609313</v>
+        <v>0.1843427484648507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04115515520707796</v>
+        <v>0.03568181289952191</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2269381861.250054</v>
+        <v>2973843746.875811</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1769386473246093</v>
+        <v>0.1851000657699992</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04429681673748455</v>
+        <v>0.04511781871107786</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4279569445.871023</v>
+        <v>4373684011.993089</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0681562242146586</v>
+        <v>0.09037162122526185</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02883498942678269</v>
+        <v>0.02529179828050027</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>136</v>
+      </c>
+      <c r="J13" t="n">
+        <v>268</v>
+      </c>
+      <c r="K13" t="n">
+        <v>95.62314557503841</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3841288339.142138</v>
+        <v>2795151453.95943</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1564818466785189</v>
+        <v>0.1465195530506078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03761283584997734</v>
+        <v>0.03557695864141231</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>54</v>
+      </c>
+      <c r="J14" t="n">
+        <v>267</v>
+      </c>
+      <c r="K14" t="n">
+        <v>51.05201963110466</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1540648787.004284</v>
+        <v>1608828655.391738</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07080060254867944</v>
+        <v>0.1005094242312751</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03721253984202012</v>
+        <v>0.03032440808152776</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2488340299.842297</v>
+        <v>1992121070.916132</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07367631162734446</v>
+        <v>0.07884572089666299</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04760550378742092</v>
+        <v>0.04449508258934417</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3521000596.013872</v>
+        <v>4332389110.680921</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1564866019784516</v>
+        <v>0.1568836639567894</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04704023577968031</v>
+        <v>0.05046049946544334</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>128</v>
+      </c>
+      <c r="J17" t="n">
+        <v>268</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2516134407.55697</v>
+        <v>2567021836.297469</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1325535652464713</v>
+        <v>0.1258075282494075</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02877604583324661</v>
+        <v>0.03097587758047721</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>67</v>
+      </c>
+      <c r="J18" t="n">
+        <v>267</v>
+      </c>
+      <c r="K18" t="n">
+        <v>41.73222956369669</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1137809804.545388</v>
+        <v>976694221.7090101</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1379285671821059</v>
+        <v>0.1659085495440697</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02345941181218044</v>
+        <v>0.02277416518134585</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2200203926.753081</v>
+        <v>1795318717.6343</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1555791921900995</v>
+        <v>0.1581010503997698</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03107588395586849</v>
+        <v>0.03038157851668196</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1820358188.656653</v>
+        <v>2277443693.690071</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0682607571254383</v>
+        <v>0.06217269897054905</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03085895589050509</v>
+        <v>0.03798211250313022</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3136322966.650064</v>
+        <v>3577090465.937137</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1412845048475751</v>
+        <v>0.1227233411823844</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05670369223685446</v>
+        <v>0.04110871825126008</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>69</v>
+      </c>
+      <c r="J22" t="n">
+        <v>268</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1367784872.189739</v>
+        <v>1261129380.209218</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1365960839003223</v>
+        <v>0.1796674069900145</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04863565244311208</v>
+        <v>0.04536123625325745</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2867294416.060503</v>
+        <v>3083952486.684246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1488830859225621</v>
+        <v>0.1223478833279231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03110132978403118</v>
+        <v>0.0275756826209641</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1145595403.056075</v>
+        <v>1056842829.916027</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09103868284266356</v>
+        <v>0.08109414817142242</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0186273619528983</v>
+        <v>0.0213401398048402</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1337701154.022541</v>
+        <v>1249940402.61875</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1113569471057797</v>
+        <v>0.1035789355385571</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0360261533892129</v>
+        <v>0.02614985596369932</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4336752590.853495</v>
+        <v>3056444153.162739</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1453204675201707</v>
+        <v>0.09800382288331724</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02424431512553122</v>
+        <v>0.02483714598788603</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>110</v>
+      </c>
+      <c r="J27" t="n">
+        <v>267</v>
+      </c>
+      <c r="K27" t="n">
+        <v>48.98070618602604</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3510212744.561831</v>
+        <v>2549439664.996171</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1200984800166636</v>
+        <v>0.1196940772808121</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04715936577017273</v>
+        <v>0.04333276282016129</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4153482161.224035</v>
+        <v>4853796953.30095</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1299509428938932</v>
+        <v>0.1004736537922949</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04146274350777959</v>
+        <v>0.04594060082185184</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>256</v>
+      </c>
+      <c r="J29" t="n">
+        <v>268</v>
+      </c>
+      <c r="K29" t="n">
+        <v>99.2221433734651</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1767740652.022927</v>
+        <v>1579653674.273433</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1255666775624678</v>
+        <v>0.1205911482103349</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02778062320323085</v>
+        <v>0.02634777204104825</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1092410038.78321</v>
+        <v>1285790037.933161</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08091222883877855</v>
+        <v>0.09282589085231062</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03609020757110094</v>
+        <v>0.03741576531444469</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1221000495.557734</v>
+        <v>1192493797.682949</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1200402050180178</v>
+        <v>0.09700142460154459</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02824079298513143</v>
+        <v>0.03419201319144395</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1894000634.216869</v>
+        <v>2705869065.478569</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1748280644416945</v>
+        <v>0.1955674634992236</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05341413967680995</v>
+        <v>0.05658780354732641</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1317153770.263275</v>
+        <v>1082520283.798009</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1218159879441071</v>
+        <v>0.07694385929654715</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02060141143908273</v>
+        <v>0.02545551451683312</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>903015763.9267839</v>
+        <v>1328030057.5725</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07537474937481248</v>
+        <v>0.0835983165456301</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03722066793888401</v>
+        <v>0.02937016902864905</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3153401725.578619</v>
+        <v>2742334371.66206</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1596732144308439</v>
+        <v>0.1119289524123334</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02186007178326004</v>
+        <v>0.01985256636144762</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2496044611.466342</v>
+        <v>2769050311.782254</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1062239037579868</v>
+        <v>0.09052450579702817</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03066358110951442</v>
+        <v>0.03321133912061663</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1995033758.134185</v>
+        <v>1735556677.225168</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1184773971168098</v>
+        <v>0.09099642240991709</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03780768768364756</v>
+        <v>0.03037008342062742</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2026404881.033863</v>
+        <v>2003946294.626523</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1592588123754999</v>
+        <v>0.1860727384351917</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02493826621976821</v>
+        <v>0.02124712096614193</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1098317581.018535</v>
+        <v>1490870379.972967</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1314323157203976</v>
+        <v>0.1021708228450603</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04929739771478654</v>
+        <v>0.05814598140591603</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2368318672.140407</v>
+        <v>2618841865.112508</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1027238261121008</v>
+        <v>0.1451286615054143</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04121553669993359</v>
+        <v>0.03346898689933494</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3319500690.067651</v>
+        <v>4207616927.919336</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1141787953672443</v>
+        <v>0.0823877388896474</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03863416416455732</v>
+        <v>0.04537586332151667</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>112</v>
+      </c>
+      <c r="J42" t="n">
+        <v>268</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1859537121.975029</v>
+        <v>2803677573.389018</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1971654123312903</v>
+        <v>0.1932857962565622</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01816308726673916</v>
+        <v>0.02495368214359566</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2231119959.643707</v>
+        <v>2293608020.174514</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07831474982095697</v>
+        <v>0.08308596171424452</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02678665439453373</v>
+        <v>0.03361349621569411</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2112336639.329782</v>
+        <v>2375458234.576464</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1292714214462983</v>
+        <v>0.1728671831134821</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03467409782949778</v>
+        <v>0.0500645433224955</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3675255984.812106</v>
+        <v>5220684625.145147</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1239877996010437</v>
+        <v>0.1119707576972194</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05442573270933369</v>
+        <v>0.04820399542745125</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>156</v>
+      </c>
+      <c r="J46" t="n">
+        <v>268</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3893438206.427266</v>
+        <v>4711163302.928245</v>
       </c>
       <c r="F47" t="n">
-        <v>0.16938896371402</v>
+        <v>0.1383575922816504</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0517521381311966</v>
+        <v>0.04825483908362863</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>121</v>
+      </c>
+      <c r="J47" t="n">
+        <v>267</v>
+      </c>
+      <c r="K47" t="n">
+        <v>78.37500102378831</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3776762335.503607</v>
+        <v>3464394942.897038</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07510524124836264</v>
+        <v>0.06873495959276493</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02555498196191098</v>
+        <v>0.02755613234371577</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>132</v>
+      </c>
+      <c r="J48" t="n">
+        <v>266</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1630822987.776002</v>
+        <v>1672857038.561355</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1645563502118813</v>
+        <v>0.1199201004201072</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04447867277639213</v>
+        <v>0.04071316307988367</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2199,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3907480663.398072</v>
+        <v>4060704211.092298</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1254887958980029</v>
+        <v>0.1555277072982866</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05137796263687505</v>
+        <v>0.04681363818209431</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>86</v>
+      </c>
+      <c r="J50" t="n">
+        <v>268</v>
+      </c>
+      <c r="K50" t="n">
+        <v>100.7449072179515</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1252477393.964017</v>
+        <v>1057617717.882148</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1281271559740949</v>
+        <v>0.1487389237194719</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05218726949664988</v>
+        <v>0.0449891756830203</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3449345366.316079</v>
+        <v>5028268090.549168</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1327310504594152</v>
+        <v>0.1090828422692686</v>
       </c>
       <c r="G52" t="n">
-        <v>0.051492213548909</v>
+        <v>0.04564276512777859</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>170</v>
+      </c>
+      <c r="J52" t="n">
+        <v>267</v>
+      </c>
+      <c r="K52" t="n">
+        <v>93.29030155976383</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3132639737.316287</v>
+        <v>3570648714.279397</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1893853652329781</v>
+        <v>0.1611277313548901</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02413262343565965</v>
+        <v>0.03267542927095476</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
+        <v>265</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4789038162.065435</v>
+        <v>4143601651.826149</v>
       </c>
       <c r="F54" t="n">
-        <v>0.139577439180621</v>
+        <v>0.124443290810417</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04454413781702461</v>
+        <v>0.05313081907155682</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>141</v>
+      </c>
+      <c r="J54" t="n">
+        <v>268</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4894952543.103269</v>
+        <v>4609792246.16813</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2209284629902408</v>
+        <v>0.2240325618629805</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01992619325937059</v>
+        <v>0.02005708466171119</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>120</v>
+      </c>
+      <c r="J55" t="n">
+        <v>268</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1527542515.181845</v>
+        <v>1656154599.955004</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1613636125105377</v>
+        <v>0.1101028266877514</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04530462233262335</v>
+        <v>0.03641762769136719</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4576510486.04168</v>
+        <v>4394474640.492077</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1295156563990791</v>
+        <v>0.1678036431142836</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01815380973670945</v>
+        <v>0.02137475572652639</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>107</v>
+      </c>
+      <c r="J57" t="n">
+        <v>268</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1730944638.29016</v>
+        <v>1763505494.543373</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1791710634269468</v>
+        <v>0.1587645628847321</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03458347707678593</v>
+        <v>0.03182671703035885</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5024283874.47956</v>
+        <v>3772130581.708574</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08311583524939817</v>
+        <v>0.08585379782270201</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03881531099614262</v>
+        <v>0.03661309955098412</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>129</v>
+      </c>
+      <c r="J59" t="n">
+        <v>268</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3722774937.433926</v>
+        <v>2988215801.712275</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1613980158181129</v>
+        <v>0.1648223004591789</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03064614877894815</v>
+        <v>0.02353661972616893</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3058416983.592125</v>
+        <v>2159303402.463743</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1307851616574402</v>
+        <v>0.123130034494775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02946731604808754</v>
+        <v>0.02146112298019839</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1671260055.205636</v>
+        <v>1868527258.805411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1487155540593537</v>
+        <v>0.182863321075514</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04636844560179598</v>
+        <v>0.04367533265076255</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3858986702.017051</v>
+        <v>3497905732.915462</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06864200274728555</v>
+        <v>0.07803317366139631</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04037164747871873</v>
+        <v>0.0432610362767269</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>130</v>
+      </c>
+      <c r="J63" t="n">
+        <v>266</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4493897337.933197</v>
+        <v>5107177002.52045</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1680058742362159</v>
+        <v>0.1921966951733217</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02342701399149182</v>
+        <v>0.02576469015686311</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>132</v>
+      </c>
+      <c r="J64" t="n">
+        <v>267</v>
+      </c>
+      <c r="K64" t="n">
+        <v>93.37675469886055</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4204534720.504903</v>
+        <v>4026108315.402545</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1374321935481922</v>
+        <v>0.1335434701135248</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03091283503154507</v>
+        <v>0.02193606802087218</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>215</v>
+      </c>
+      <c r="J65" t="n">
+        <v>268</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.21483791465195</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4853043354.512989</v>
+        <v>5527643867.09906</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1460095705315343</v>
+        <v>0.09875776999123727</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04171123832577793</v>
+        <v>0.03424620390402829</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>132</v>
+      </c>
+      <c r="J66" t="n">
+        <v>268</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3502843680.174311</v>
+        <v>3128718253.244394</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07841359144404568</v>
+        <v>0.08531503547796603</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04552028333631888</v>
+        <v>0.03637042839141533</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4889672759.034486</v>
+        <v>5953061500.141929</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1597582726960134</v>
+        <v>0.1246227299199387</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03545863810142254</v>
+        <v>0.04985256613428868</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>138</v>
+      </c>
+      <c r="J68" t="n">
+        <v>267</v>
+      </c>
+      <c r="K68" t="n">
+        <v>95.28423585100549</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2466252952.264831</v>
+        <v>2169267862.921573</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1369126279517975</v>
+        <v>0.1714685664623569</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05116598134800548</v>
+        <v>0.05857636016400646</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2947585709.115956</v>
+        <v>2358097047.514527</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08020503909579833</v>
+        <v>0.09623689898562209</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03367234680700161</v>
+        <v>0.04162443188043703</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3729638493.885473</v>
+        <v>5000008527.138722</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1457783409128714</v>
+        <v>0.1421035270178576</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02381994949326482</v>
+        <v>0.02876247964786172</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>202</v>
+      </c>
+      <c r="J71" t="n">
+        <v>268</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1435189910.582478</v>
+        <v>1514224323.133975</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07415107931377839</v>
+        <v>0.1066301618606001</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03983113166444009</v>
+        <v>0.03371727265035385</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2668450196.142019</v>
+        <v>2774438110.281826</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0916149133121586</v>
+        <v>0.07983683490412706</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03208122581616862</v>
+        <v>0.04956260346812272</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3893315682.369537</v>
+        <v>3873009388.225286</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1317782683077026</v>
+        <v>0.1262569284063206</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03327400913910286</v>
+        <v>0.02203779086811634</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>75</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="n">
+        <v>95.61584583930865</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2197111781.585377</v>
+        <v>2186923353.790343</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1273547924109416</v>
+        <v>0.1265710768490031</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02505084930072987</v>
+        <v>0.025989009263994</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3368431510.41661</v>
+        <v>5120908985.803625</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1015581046081399</v>
+        <v>0.1070262139912774</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0321326237145157</v>
+        <v>0.02727799147094365</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>125</v>
+      </c>
+      <c r="J76" t="n">
+        <v>268</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2052842949.458555</v>
+        <v>2218041722.561232</v>
       </c>
       <c r="F77" t="n">
-        <v>0.168847117463018</v>
+        <v>0.1677911361693618</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02139724285645318</v>
+        <v>0.03067285866713241</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3306748257.477674</v>
+        <v>3198505960.810333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1095717463570856</v>
+        <v>0.1157860330279642</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05487710991465436</v>
+        <v>0.04901078266159452</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>135</v>
+      </c>
+      <c r="J78" t="n">
+        <v>267</v>
+      </c>
+      <c r="K78" t="n">
+        <v>59.84353396171478</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1762438113.698988</v>
+        <v>1786255180.155003</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1413394971340648</v>
+        <v>0.1288522592438305</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03971700452816796</v>
+        <v>0.02649152888599476</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4993469737.597779</v>
+        <v>5462834384.299705</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07766650192947627</v>
+        <v>0.09003881425478352</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03227180470550182</v>
+        <v>0.03824343828873395</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>131</v>
+      </c>
+      <c r="J80" t="n">
+        <v>267</v>
+      </c>
+      <c r="K80" t="n">
+        <v>71.30207636807428</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3292896614.038081</v>
+        <v>4048080991.697147</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08457183863212404</v>
+        <v>0.1375417271484509</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02697106218123031</v>
+        <v>0.02298579848647582</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>123</v>
+      </c>
+      <c r="J81" t="n">
+        <v>267</v>
+      </c>
+      <c r="K81" t="n">
+        <v>84.22029206234828</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4055428280.26216</v>
+        <v>3940189378.759902</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1744161275288653</v>
+        <v>0.1989260206041894</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02614898716819924</v>
+        <v>0.0249355382714767</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>199</v>
+      </c>
+      <c r="J82" t="n">
+        <v>268</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1626629448.286719</v>
+        <v>2019537064.464859</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1183500154581787</v>
+        <v>0.141987569256303</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0284376882681813</v>
+        <v>0.04064198570618198</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2252561628.324916</v>
+        <v>1751643369.084685</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208377467606392</v>
+        <v>0.1054691257211338</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03389422188577965</v>
+        <v>0.05073610288017392</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3169228920.169856</v>
+        <v>2614054625.747647</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1851071498908393</v>
+        <v>0.1494061043473193</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0443946209483346</v>
+        <v>0.05642920793071651</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2083503161.812804</v>
+        <v>1852592233.980496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1057647828569206</v>
+        <v>0.14657080923549</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02714843448660198</v>
+        <v>0.01737429465779148</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>915372114.8168418</v>
+        <v>1261997158.631538</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1240530392490921</v>
+        <v>0.1633321589289164</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04168165911902276</v>
+        <v>0.02946264262071193</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3312799482.861022</v>
+        <v>3028881450.813909</v>
       </c>
       <c r="F88" t="n">
-        <v>0.129598140097695</v>
+        <v>0.154083834448093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03872773458427469</v>
+        <v>0.03164982961366714</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2137133374.810058</v>
+        <v>2910149357.910976</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1007512792660097</v>
+        <v>0.1486936689223705</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03869181485510172</v>
+        <v>0.02851904050953344</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1569235329.426594</v>
+        <v>1922531658.343232</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1168151715796029</v>
+        <v>0.1039030436842841</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04660713150279901</v>
+        <v>0.05054297895130501</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1490347289.154019</v>
+        <v>1845779926.31196</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1438524660158848</v>
+        <v>0.1581495314609461</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03835747700499469</v>
+        <v>0.04025377686320405</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2775213675.504607</v>
+        <v>2067981537.543581</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1013767750473263</v>
+        <v>0.08759370756154272</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03208336763254838</v>
+        <v>0.04735528520169999</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4924922266.002545</v>
+        <v>4838179340.599831</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1013054946428738</v>
+        <v>0.101157035928916</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05329789726059073</v>
+        <v>0.04933670235233154</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>117</v>
+      </c>
+      <c r="J93" t="n">
+        <v>267</v>
+      </c>
+      <c r="K93" t="n">
+        <v>94.91121972558649</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2011946372.40998</v>
+        <v>2441930169.98497</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1423506101085935</v>
+        <v>0.1097968056417771</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03351774989470118</v>
+        <v>0.03663670736360039</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2377561291.210359</v>
+        <v>2910232432.022023</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1327130337155654</v>
+        <v>0.1341815289449443</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03585841014803605</v>
+        <v>0.04092279033238647</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2168892479.709667</v>
+        <v>2362228224.410667</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1305825922623157</v>
+        <v>0.09885832650705793</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04372116546880286</v>
+        <v>0.04650302071956788</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4058248787.013638</v>
+        <v>5257403379.66182</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1378159230884104</v>
+        <v>0.1158259182797803</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02806424870363423</v>
+        <v>0.02394510949225064</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>132</v>
+      </c>
+      <c r="J97" t="n">
+        <v>268</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3018085856.36568</v>
+        <v>3452451536.481258</v>
       </c>
       <c r="F98" t="n">
-        <v>0.105464097401574</v>
+        <v>0.1081357555594641</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03261893230646454</v>
+        <v>0.03093632703681726</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2301378644.019911</v>
+        <v>2700532933.455581</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1412435864016991</v>
+        <v>0.1168082405564401</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02435828283087782</v>
+        <v>0.02436199387222752</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3437944948.336082</v>
+        <v>3243341947.754859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534372533136081</v>
+        <v>0.1087314009728927</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02692179588844755</v>
+        <v>0.01711499301268268</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>113</v>
+      </c>
+      <c r="J100" t="n">
+        <v>267</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.75040940808442</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3586720216.598755</v>
+        <v>3587991631.426179</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1814936795477436</v>
+        <v>0.1450888381388117</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04931478550380606</v>
+        <v>0.04304942935278638</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>21</v>
+      </c>
+      <c r="J101" t="n">
+        <v>268</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
